--- a/random_wc_model_generator/data/fixtures/model_core.xlsx
+++ b/random_wc_model_generator/data/fixtures/model_core.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,16 +35,38 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$B$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$I$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$F$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$84</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$84</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$D$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$D$66</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$87</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$29</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$R$20</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Cross references'!$A$1:$I$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Cross references'!$A$1:$I$99</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Cross references'!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3665,7 +3687,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3689,10 +3711,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3771,19 +3789,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3792,15 +3810,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3916,14 +3933,16 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="E27:E29 B1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -3985,14 +4004,18 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E27:E29 B2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -4050,19 +4073,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="E27:E29 B2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -4231,13 +4254,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="E27:E29 B2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -5020,20 +5043,20 @@
   </sheetPr>
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="C58" activeCellId="1" sqref="E27:E29 C58"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="27.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -5427,1348 +5450,1664 @@
         <v>970</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>1021</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>1023</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>1025</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="1" t="n">
         <v>6197512</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="1" t="n">
         <v>77638054</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>1032</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>1034</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="1" t="n">
         <v>28724627</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>1037</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
         <v>10306892</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>1038</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>1040</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>1042</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>1044</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>1046</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>1048</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>1050</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="1" t="n">
         <v>10251455</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>1051</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>1053</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>1055</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>1057</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>1059</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>1061</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>1063</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>1069</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>1075</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="1" t="n">
         <v>4610</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>1076</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>1078</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>1080</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>1082</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>1084</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>1086</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>1088</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>1090</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>1092</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="1" t="n">
         <v>51795710</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>1097</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="1" t="n">
         <v>8198360</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>1102</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="1" t="n">
         <v>10242166</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>1103</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>1105</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="1" t="n">
         <v>10233351</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>1106</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>1108</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>1110</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>1112</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>1114</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>1116</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="1" t="n">
         <v>8189514</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>1117</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>1123</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>1127</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>1131</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>1133</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>1135</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="1" t="n">
         <v>10246126</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>1136</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>1138</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>1140</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>1142</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>1144</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="1" t="n">
         <v>8888253</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>1145</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="1" t="n">
         <v>8546048</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>1148</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>1150</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>1152</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>1154</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>1156</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>1158</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>1160</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="1" t="n">
         <v>10285797</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>1161</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I99"/>
@@ -6793,13 +7132,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B11" activeCellId="1" sqref="E27:E29 B11"/>
+      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -6872,16 +7211,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="E27:E29 B2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -7054,18 +7393,18 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="1" sqref="E27:E29 D6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -7150,20 +7489,20 @@
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="C57" activeCellId="1" sqref="E27:E29 C57"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="B108" activeCellId="0" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="3" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="6" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="6" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -9505,203 +9844,369 @@
       </c>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="B86" s="8"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="B87" s="8"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="B89" s="8"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="B90" s="8"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="B91" s="8"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="B92" s="8"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="B93" s="8"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="B94" s="8"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="B95" s="8"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="B96" s="8"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="B97" s="8"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="B98" s="8"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="B99" s="8"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="B100" s="8"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="B101" s="8"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="B102" s="8"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="B103" s="8"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+      <c r="I103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="B104" s="8"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+      <c r="I104" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="B105" s="8"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="B106" s="8"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="B107" s="8"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="B108" s="8"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="I108" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J84"/>
@@ -9728,7 +10233,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="F62" activeCellId="1" sqref="E27:E29 F62"/>
+      <selection pane="bottomRight" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10112,6 +10617,7 @@
       <c r="B34" s="13" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C34" s="0"/>
       <c r="D34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10133,6 +10639,7 @@
       <c r="B36" s="13" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C36" s="0"/>
       <c r="D36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10154,6 +10661,7 @@
       <c r="B38" s="13" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C38" s="0"/>
       <c r="D38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10175,6 +10683,7 @@
       <c r="B40" s="13" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C40" s="0"/>
       <c r="D40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10196,6 +10705,7 @@
       <c r="B42" s="13" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C42" s="0"/>
       <c r="D42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10241,6 +10751,7 @@
       <c r="B46" s="13" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C46" s="0"/>
       <c r="D46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10485,20 +10996,20 @@
   </sheetPr>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="1" sqref="E27:E29 D6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -10544,11 +11055,13 @@
       <c r="D2" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="16" t="b">
+      <c r="E2" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="0"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10564,11 +11077,13 @@
       <c r="D3" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E3" s="16" t="b">
+      <c r="E3" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="0"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10584,11 +11099,13 @@
       <c r="D4" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E4" s="16" t="b">
+      <c r="E4" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="0"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10604,11 +11121,13 @@
       <c r="D5" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E5" s="16" t="b">
+      <c r="E5" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="0"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10624,11 +11143,13 @@
       <c r="D6" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E6" s="16" t="b">
+      <c r="E6" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="0"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10644,11 +11165,13 @@
       <c r="D7" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E7" s="16" t="b">
+      <c r="E7" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="0"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10664,11 +11187,13 @@
       <c r="D8" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E8" s="16" t="b">
+      <c r="E8" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="0"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10684,11 +11209,13 @@
       <c r="D9" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E9" s="16" t="b">
+      <c r="E9" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="0"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10704,11 +11231,13 @@
       <c r="D10" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E10" s="16" t="b">
+      <c r="E10" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="0"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10724,11 +11253,13 @@
       <c r="D11" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E11" s="16" t="b">
+      <c r="E11" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="0"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10744,11 +11275,13 @@
       <c r="D12" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E12" s="16" t="b">
+      <c r="E12" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="0"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10764,11 +11297,13 @@
       <c r="D13" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E13" s="16" t="b">
+      <c r="E13" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
+      <c r="H13" s="0"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10784,11 +11319,13 @@
       <c r="D14" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E14" s="16" t="b">
+      <c r="E14" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
+      <c r="H14" s="0"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10804,11 +11341,13 @@
       <c r="D15" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="16" t="b">
+      <c r="E15" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="0"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10824,11 +11363,13 @@
       <c r="D16" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E16" s="16" t="b">
+      <c r="E16" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
+      <c r="H16" s="0"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10844,11 +11385,13 @@
       <c r="D17" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E17" s="16" t="b">
+      <c r="E17" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="H17" s="0"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10864,11 +11407,13 @@
       <c r="D18" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E18" s="16" t="b">
+      <c r="E18" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
+      <c r="H18" s="0"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10884,11 +11429,13 @@
       <c r="D19" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E19" s="16" t="b">
+      <c r="E19" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
+      <c r="H19" s="0"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10904,11 +11451,13 @@
       <c r="D20" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E20" s="16" t="b">
+      <c r="E20" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
+      <c r="H20" s="0"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10924,11 +11473,13 @@
       <c r="D21" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E21" s="16" t="b">
+      <c r="E21" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
+      <c r="H21" s="0"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10944,11 +11495,13 @@
       <c r="D22" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E22" s="16" t="b">
+      <c r="E22" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
+      <c r="H22" s="0"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10964,11 +11517,13 @@
       <c r="D23" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E23" s="16" t="b">
+      <c r="E23" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
+      <c r="H23" s="0"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10984,11 +11539,13 @@
       <c r="D24" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E24" s="16" t="b">
+      <c r="E24" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
+      <c r="H24" s="0"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11004,11 +11561,13 @@
       <c r="D25" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E25" s="16" t="b">
+      <c r="E25" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
+      <c r="H25" s="0"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11024,11 +11583,13 @@
       <c r="D26" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E26" s="16" t="b">
+      <c r="E26" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
+      <c r="H26" s="0"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11044,11 +11605,13 @@
       <c r="D27" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E27" s="16" t="b">
+      <c r="E27" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
+      <c r="H27" s="0"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11064,11 +11627,13 @@
       <c r="D28" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E28" s="16" t="b">
+      <c r="E28" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="H28" s="0"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11084,11 +11649,13 @@
       <c r="D29" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E29" s="16" t="b">
+      <c r="E29" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="0"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11104,11 +11671,13 @@
       <c r="D30" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E30" s="16" t="b">
+      <c r="E30" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
+      <c r="H30" s="0"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11124,11 +11693,13 @@
       <c r="D31" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E31" s="16" t="b">
+      <c r="E31" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="0"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11144,11 +11715,13 @@
       <c r="D32" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E32" s="16" t="b">
+      <c r="E32" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
+      <c r="H32" s="0"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11164,11 +11737,13 @@
       <c r="D33" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E33" s="16" t="b">
+      <c r="E33" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
+      <c r="H33" s="0"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11184,11 +11759,13 @@
       <c r="D34" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E34" s="16" t="b">
+      <c r="E34" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
+      <c r="H34" s="0"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11204,11 +11781,13 @@
       <c r="D35" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E35" s="16" t="b">
+      <c r="E35" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
+      <c r="H35" s="0"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11224,11 +11803,13 @@
       <c r="D36" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E36" s="16" t="b">
+      <c r="E36" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
+      <c r="H36" s="0"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11244,11 +11825,13 @@
       <c r="D37" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E37" s="16" t="b">
+      <c r="E37" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
+      <c r="H37" s="0"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11264,11 +11847,13 @@
       <c r="D38" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E38" s="16" t="b">
+      <c r="E38" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
+      <c r="H38" s="0"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11284,11 +11869,13 @@
       <c r="D39" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E39" s="16" t="b">
+      <c r="E39" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
+      <c r="H39" s="0"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11304,11 +11891,13 @@
       <c r="D40" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E40" s="16" t="b">
+      <c r="E40" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
+      <c r="H40" s="0"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11324,11 +11913,13 @@
       <c r="D41" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E41" s="16" t="b">
+      <c r="E41" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
+      <c r="H41" s="0"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11344,11 +11935,13 @@
       <c r="D42" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E42" s="16" t="b">
+      <c r="E42" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
+      <c r="H42" s="0"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11364,11 +11957,13 @@
       <c r="D43" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E43" s="16" t="b">
+      <c r="E43" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
+      <c r="H43" s="0"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11384,11 +11979,13 @@
       <c r="D44" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E44" s="16" t="b">
+      <c r="E44" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
+      <c r="H44" s="0"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11404,11 +12001,13 @@
       <c r="D45" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E45" s="16" t="b">
+      <c r="E45" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
+      <c r="H45" s="0"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11424,11 +12023,13 @@
       <c r="D46" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E46" s="16" t="b">
+      <c r="E46" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
+      <c r="H46" s="0"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11444,11 +12045,13 @@
       <c r="D47" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E47" s="16" t="b">
+      <c r="E47" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
+      <c r="H47" s="0"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11464,11 +12067,13 @@
       <c r="D48" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E48" s="16" t="b">
+      <c r="E48" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
+      <c r="H48" s="0"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11484,11 +12089,13 @@
       <c r="D49" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E49" s="16" t="b">
+      <c r="E49" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
+      <c r="H49" s="0"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11504,11 +12111,13 @@
       <c r="D50" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E50" s="16" t="b">
+      <c r="E50" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
+      <c r="H50" s="0"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11524,11 +12133,13 @@
       <c r="D51" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E51" s="16" t="b">
+      <c r="E51" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
+      <c r="H51" s="0"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11544,11 +12155,13 @@
       <c r="D52" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E52" s="16" t="b">
+      <c r="E52" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
+      <c r="H52" s="0"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11564,11 +12177,13 @@
       <c r="D53" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E53" s="16" t="b">
+      <c r="E53" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
+      <c r="H53" s="0"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11584,11 +12199,13 @@
       <c r="D54" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="E54" s="16" t="b">
+      <c r="E54" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
+      <c r="H54" s="0"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11604,11 +12221,13 @@
       <c r="D55" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E55" s="16" t="b">
+      <c r="E55" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
+      <c r="H55" s="0"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11624,11 +12243,13 @@
       <c r="D56" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E56" s="16" t="b">
+      <c r="E56" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
+      <c r="H56" s="0"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11644,11 +12265,13 @@
       <c r="D57" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E57" s="16" t="b">
+      <c r="E57" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
+      <c r="H57" s="0"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11664,11 +12287,13 @@
       <c r="D58" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E58" s="16" t="b">
+      <c r="E58" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
+      <c r="H58" s="0"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11684,11 +12309,13 @@
       <c r="D59" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E59" s="16" t="b">
+      <c r="E59" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
+      <c r="H59" s="0"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11704,11 +12331,13 @@
       <c r="D60" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E60" s="16" t="b">
+      <c r="E60" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
+      <c r="H60" s="0"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11724,11 +12353,13 @@
       <c r="D61" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E61" s="16" t="b">
+      <c r="E61" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
+      <c r="H61" s="0"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11744,11 +12375,13 @@
       <c r="D62" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E62" s="16" t="b">
+      <c r="E62" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
+      <c r="H62" s="0"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11764,11 +12397,13 @@
       <c r="D63" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E63" s="16" t="b">
+      <c r="E63" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
+      <c r="H63" s="0"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11784,11 +12419,13 @@
       <c r="D64" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E64" s="16" t="b">
+      <c r="E64" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
+      <c r="H64" s="0"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11804,11 +12441,13 @@
       <c r="D65" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="E65" s="16" t="b">
+      <c r="E65" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
+      <c r="H65" s="0"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11824,11 +12463,13 @@
       <c r="D66" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E66" s="16" t="b">
+      <c r="E66" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
+      <c r="H66" s="0"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11844,11 +12485,13 @@
       <c r="D67" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E67" s="16" t="b">
+      <c r="E67" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
+      <c r="H67" s="0"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11864,11 +12507,13 @@
       <c r="D68" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="E68" s="16" t="b">
+      <c r="E68" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
+      <c r="H68" s="0"/>
       <c r="I68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11884,11 +12529,13 @@
       <c r="D69" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E69" s="16" t="b">
+      <c r="E69" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
+      <c r="H69" s="0"/>
       <c r="I69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11904,11 +12551,13 @@
       <c r="D70" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E70" s="16" t="b">
+      <c r="E70" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
+      <c r="H70" s="0"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11924,11 +12573,13 @@
       <c r="D71" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E71" s="16" t="b">
+      <c r="E71" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
+      <c r="H71" s="0"/>
       <c r="I71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11944,11 +12595,13 @@
       <c r="D72" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="E72" s="16" t="b">
+      <c r="E72" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
+      <c r="H72" s="0"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11964,11 +12617,13 @@
       <c r="D73" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E73" s="16" t="b">
+      <c r="E73" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
+      <c r="H73" s="0"/>
       <c r="I73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11984,11 +12639,13 @@
       <c r="D74" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E74" s="16" t="b">
+      <c r="E74" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
+      <c r="H74" s="0"/>
       <c r="I74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12004,11 +12661,13 @@
       <c r="D75" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E75" s="16" t="b">
+      <c r="E75" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
+      <c r="H75" s="0"/>
       <c r="I75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12024,11 +12683,13 @@
       <c r="D76" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="E76" s="16" t="b">
+      <c r="E76" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
+      <c r="H76" s="0"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12044,11 +12705,13 @@
       <c r="D77" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E77" s="16" t="b">
+      <c r="E77" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
+      <c r="H77" s="0"/>
       <c r="I77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12064,11 +12727,13 @@
       <c r="D78" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="E78" s="16" t="b">
+      <c r="E78" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
+      <c r="H78" s="0"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12084,11 +12749,13 @@
       <c r="D79" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E79" s="16" t="b">
+      <c r="E79" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
+      <c r="H79" s="0"/>
       <c r="I79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12104,11 +12771,13 @@
       <c r="D80" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="E80" s="16" t="b">
+      <c r="E80" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
+      <c r="H80" s="0"/>
       <c r="I80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12124,11 +12793,13 @@
       <c r="D81" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E81" s="16" t="b">
+      <c r="E81" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
+      <c r="H81" s="0"/>
       <c r="I81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12144,11 +12815,13 @@
       <c r="D82" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E82" s="16" t="b">
+      <c r="E82" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
+      <c r="H82" s="0"/>
       <c r="I82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12164,11 +12837,13 @@
       <c r="D83" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E83" s="16" t="b">
+      <c r="E83" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
+      <c r="H83" s="0"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12184,11 +12859,13 @@
       <c r="D84" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="E84" s="16" t="b">
+      <c r="E84" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
+      <c r="H84" s="0"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12204,11 +12881,13 @@
       <c r="D85" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E85" s="16" t="b">
+      <c r="E85" s="16" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
+      <c r="H85" s="0"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12224,7 +12903,8 @@
       <c r="D86" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="E86" s="16" t="b">
+      <c r="E86" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F86" s="2"/>
@@ -12245,7 +12925,8 @@
       <c r="D87" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="E87" s="16" t="b">
+      <c r="E87" s="16" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F87" s="2"/>
@@ -12273,19 +12954,19 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="E27" activeCellId="0" sqref="E27:E29"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="3" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="3" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -12913,22 +13594,22 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="E34" activeCellId="1" sqref="E27:E29 E34"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="18" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="18" width="10.8178137651822"/>
   </cols>
   <sheetData>

--- a/random_wc_model_generator/data/fixtures/model_core.xlsx
+++ b/random_wc_model_generator/data/fixtures/model_core.xlsx
@@ -41,7 +41,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4958,10 +4958,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/random_wc_model_generator/data/fixtures/model_core.xlsx
+++ b/random_wc_model_generator/data/fixtures/model_core.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$34</definedName>
     <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$2</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$66</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$66</definedName>
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$99</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
@@ -41,30 +41,43 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$B$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$B$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$H$7</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$H$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$H$7</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$108</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$108</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$D$66</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$D$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$108</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$66</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$66</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$87</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$87</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$29</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$29</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$34</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$34</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$21</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$21</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$99</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$99</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$99</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -76,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1172">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -1248,9 +1261,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">AD[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALA[c]</t>
   </si>
   <si>
@@ -2623,9 +2642,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">carbonExchangeRate</t>
@@ -3826,7 +3842,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B6" activeCellId="1" sqref="C2:C66 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3924,7 +3940,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C2:C66 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3934,19 +3950,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -3957,536 +3973,536 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1247</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>250</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>180</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>1005.6</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>4200</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>13200</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0.276</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>628.8</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>220</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>21667.02</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>10020</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>30.6</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>12</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>1511</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>88800</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>340</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>213000</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>9600</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>47</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>200</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>120</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>4140</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>6.5</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>1.58</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>52</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -4499,13 +4515,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -4518,13 +4534,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0.000231049060186648</v>
@@ -4560,7 +4576,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C2:C66 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4579,10 +4595,10 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -4593,10 +4609,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -4608,18 +4624,18 @@
         <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
@@ -4635,10 +4651,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -4654,10 +4670,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -4673,10 +4689,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -4692,10 +4708,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -4711,10 +4727,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -4730,10 +4746,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
@@ -4749,10 +4765,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -4768,10 +4784,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -4787,10 +4803,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -4806,10 +4822,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -4825,10 +4841,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -4844,10 +4860,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -4863,10 +4879,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -4882,10 +4898,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -4901,10 +4917,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -4920,10 +4936,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -4939,10 +4955,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -4958,10 +4974,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -4977,10 +4993,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
@@ -4996,10 +5012,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
@@ -5015,10 +5031,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -5034,10 +5050,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -5053,10 +5069,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -5072,10 +5088,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -5091,10 +5107,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -5110,10 +5126,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -5129,10 +5145,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -5148,10 +5164,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -5167,10 +5183,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -5186,10 +5202,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -5205,10 +5221,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -5247,7 +5263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C2:C66 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5277,13 +5293,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -5312,7 +5328,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="C2:C66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5328,16 +5344,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>849</v>
+        <v>390</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -5348,10 +5364,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -5363,21 +5379,21 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -5387,17 +5403,17 @@
         <v>28800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -5407,19 +5423,19 @@
         <v>0.3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -5431,21 +5447,21 @@
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -5455,7 +5471,7 @@
         <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5481,7 +5497,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C2:C66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5497,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -5521,12 +5537,12 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="1" sqref="C2:C66 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5542,46 +5558,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -5592,37 +5608,37 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="n">
         <v>2008</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="Q2" s="2"/>
     </row>
@@ -5631,23 +5647,23 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="n">
         <v>2014</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -5657,118 +5673,118 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="n">
         <v>2004</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="n">
         <v>2007</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -5778,27 +5794,27 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="n">
         <v>2001</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -5811,29 +5827,29 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="n">
         <v>2006</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -5846,218 +5862,218 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="n">
         <v>1993</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="n">
         <v>2010</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="n">
         <v>1999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="n">
         <v>1979</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="n">
         <v>2012</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>35</v>
@@ -6065,71 +6081,71 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="n">
         <v>2009</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6144,17 +6160,17 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6169,17 +6185,17 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6194,17 +6210,17 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -6219,17 +6235,17 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -6244,26 +6260,26 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="n">
         <v>2013</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -6272,7 +6288,7 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6304,18 +6320,18 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="1" sqref="C2:C66 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
@@ -6323,45 +6339,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6370,18 +6386,18 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6390,18 +6406,18 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6410,18 +6426,18 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6430,18 +6446,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6450,18 +6466,18 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>815332823</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6470,18 +6486,18 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6490,18 +6506,18 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6510,18 +6526,18 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6535,13 +6551,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6550,18 +6566,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6575,13 +6591,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>33184</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6590,18 +6606,18 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6610,18 +6626,18 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6630,7 +6646,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6638,10 +6654,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6650,7 +6666,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6658,10 +6674,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6670,7 +6686,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6678,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6690,7 +6706,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6698,10 +6714,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6710,7 +6726,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6718,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6730,18 +6746,18 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>1</v>
@@ -6757,13 +6773,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1</v>
@@ -6779,13 +6795,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1</v>
@@ -6801,13 +6817,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>6197512</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1</v>
@@ -6823,13 +6839,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>1</v>
@@ -6845,13 +6861,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>1</v>
@@ -6867,13 +6883,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>77638054</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>1</v>
@@ -6889,13 +6905,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>1</v>
@@ -6911,13 +6927,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>28724627</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>1</v>
@@ -6933,13 +6949,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>1</v>
@@ -6955,13 +6971,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>10306892</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>1</v>
@@ -6977,13 +6993,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>1</v>
@@ -6999,13 +7015,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>1</v>
@@ -7021,13 +7037,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>1</v>
@@ -7043,13 +7059,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1</v>
@@ -7065,13 +7081,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>1</v>
@@ -7087,13 +7103,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>1</v>
@@ -7109,13 +7125,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>10251455</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>1</v>
@@ -7131,13 +7147,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>1</v>
@@ -7153,13 +7169,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>1</v>
@@ -7175,13 +7191,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>1</v>
@@ -7197,13 +7213,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>1</v>
@@ -7219,13 +7235,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>1</v>
@@ -7241,13 +7257,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>1</v>
@@ -7263,13 +7279,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>1</v>
@@ -7285,13 +7301,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>1</v>
@@ -7307,13 +7323,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>1</v>
@@ -7329,13 +7345,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>1</v>
@@ -7351,13 +7367,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>1</v>
@@ -7373,13 +7389,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>1</v>
@@ -7395,13 +7411,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>4610</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>1</v>
@@ -7417,13 +7433,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>1</v>
@@ -7439,13 +7455,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>1</v>
@@ -7461,13 +7477,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>1</v>
@@ -7483,13 +7499,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>1</v>
@@ -7505,13 +7521,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>1</v>
@@ -7527,13 +7543,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>1</v>
@@ -7549,13 +7565,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>1</v>
@@ -7571,13 +7587,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>1</v>
@@ -7593,13 +7609,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>51795710</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>1</v>
@@ -7615,13 +7631,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>1</v>
@@ -7637,13 +7653,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>1</v>
@@ -7659,13 +7675,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>1</v>
@@ -7681,13 +7697,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>8198360</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>1</v>
@@ -7703,13 +7719,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>1</v>
@@ -7725,13 +7741,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>10242166</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1</v>
@@ -7747,13 +7763,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>1</v>
@@ -7769,13 +7785,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>10233351</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>1</v>
@@ -7791,13 +7807,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>1</v>
@@ -7813,13 +7829,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>1</v>
@@ -7835,13 +7851,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>1</v>
@@ -7857,13 +7873,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>1</v>
@@ -7879,13 +7895,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>1</v>
@@ -7901,13 +7917,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>8189514</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>1</v>
@@ -7923,13 +7939,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>1</v>
@@ -7945,13 +7961,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>1</v>
@@ -7967,13 +7983,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>1</v>
@@ -7989,13 +8005,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>1</v>
@@ -8011,13 +8027,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>1</v>
@@ -8033,13 +8049,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>1</v>
@@ -8055,13 +8071,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>1</v>
@@ -8077,13 +8093,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>1</v>
@@ -8099,13 +8115,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>1</v>
@@ -8121,13 +8137,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>10246126</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>1</v>
@@ -8143,13 +8159,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>1</v>
@@ -8165,13 +8181,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>1</v>
@@ -8187,13 +8203,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>1</v>
@@ -8209,13 +8225,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>1</v>
@@ -8231,13 +8247,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>8888253</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>1</v>
@@ -8253,13 +8269,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>1</v>
@@ -8275,13 +8291,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>8546048</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>1</v>
@@ -8297,13 +8313,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>1</v>
@@ -8319,13 +8335,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>1</v>
@@ -8341,13 +8357,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>1</v>
@@ -8363,13 +8379,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>1</v>
@@ -8385,13 +8401,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>1</v>
@@ -8407,13 +8423,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>1</v>
@@ -8429,13 +8445,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>10285797</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>1</v>
@@ -8451,13 +8467,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>1</v>
@@ -8496,7 +8512,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="1" sqref="C2:C66 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8565,7 +8581,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="C2:C66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8734,7 +8750,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="C2:C66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8818,7 +8834,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="1" sqref="C2:C66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11374,17 +11390,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2:C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
@@ -11397,734 +11413,932 @@
         <v>389</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.00727552</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0.00305544</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0.0002</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>0.00781962</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.00170010200612037</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.00318137</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>0.00025</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>0.0550705747828259</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>0.000715127</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>0.0134776</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>0.00782989</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>0.00013234</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.122E-008</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.7783E-008</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>0.00238654</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>0.00406589</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>0.00781927</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>0.00630316</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>0.00179497</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>5.28369E-006</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>0.000273010920436817</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>0.00340385</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>0.005</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>0.02</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>0.00824728</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>0.0053761</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>0.00470492</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>0.000313168</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>0.00112553</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>0.000178433</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>1.04143E-006</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>0.0005</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>0.00587101</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D66"/>
+  <autoFilter ref="A1:E66"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12144,7 +12358,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C2:C66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12163,7 +12377,7 @@
         <v>388</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -12188,7 +12402,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C2:C66 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12204,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -12233,7 +12447,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="C2:C66 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12249,19 +12463,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -12272,16 +12486,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>1</v>
@@ -12293,16 +12507,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -12314,16 +12528,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1</v>
@@ -12335,16 +12549,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -12356,16 +12570,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -12377,16 +12591,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -12398,16 +12612,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -12419,16 +12633,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -12440,16 +12654,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>1</v>
@@ -12461,16 +12675,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1</v>
@@ -12482,16 +12696,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -12503,16 +12717,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1</v>
@@ -12524,16 +12738,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -12545,16 +12759,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -12566,16 +12780,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -12587,16 +12801,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>0</v>
@@ -12608,16 +12822,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -12629,16 +12843,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -12650,16 +12864,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -12671,16 +12885,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>0</v>
@@ -12692,16 +12906,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -12713,16 +12927,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>0</v>
@@ -12734,16 +12948,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -12755,16 +12969,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -12776,16 +12990,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -12797,16 +13011,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -12818,16 +13032,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -12839,16 +13053,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -12860,16 +13074,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -12881,16 +13095,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -12902,16 +13116,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -12923,16 +13137,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -12944,16 +13158,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>1</v>
@@ -12965,16 +13179,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>1</v>
@@ -12986,16 +13200,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>1</v>
@@ -13007,16 +13221,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -13028,16 +13242,16 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -13049,16 +13263,16 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0</v>
@@ -13070,16 +13284,16 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -13091,16 +13305,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0</v>
@@ -13112,16 +13326,16 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>1</v>
@@ -13133,16 +13347,16 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1</v>
@@ -13154,16 +13368,16 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>1</v>
@@ -13175,16 +13389,16 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>0</v>
@@ -13196,16 +13410,16 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>1</v>
@@ -13217,16 +13431,16 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>1</v>
@@ -13238,16 +13452,16 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>0</v>
@@ -13259,16 +13473,16 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>0</v>
@@ -13280,16 +13494,16 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>1</v>
@@ -13301,16 +13515,16 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>0</v>
@@ -13322,16 +13536,16 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>0</v>
@@ -13343,16 +13557,16 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>0</v>
@@ -13364,16 +13578,16 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>1</v>
@@ -13385,16 +13599,16 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>1</v>
@@ -13406,16 +13620,16 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>0</v>
@@ -13427,16 +13641,16 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>0</v>
@@ -13448,16 +13662,16 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0</v>
@@ -13469,16 +13683,16 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>1</v>
@@ -13490,16 +13704,16 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>1</v>
@@ -13511,16 +13725,16 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>1</v>
@@ -13532,16 +13746,16 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>0</v>
@@ -13553,16 +13767,16 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0</v>
@@ -13574,16 +13788,16 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>0</v>
@@ -13595,16 +13809,16 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>0</v>
@@ -13616,16 +13830,16 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>0</v>
@@ -13637,16 +13851,16 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>0</v>
@@ -13658,16 +13872,16 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>0</v>
@@ -13679,16 +13893,16 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>0</v>
@@ -13700,16 +13914,16 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>0</v>
@@ -13721,16 +13935,16 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>1</v>
@@ -13742,16 +13956,16 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>1</v>
@@ -13763,16 +13977,16 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>0</v>
@@ -13784,16 +13998,16 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>1</v>
@@ -13805,16 +14019,16 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>0</v>
@@ -13826,16 +14040,16 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>1</v>
@@ -13847,16 +14061,16 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>1</v>
@@ -13868,16 +14082,16 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>1</v>
@@ -13889,16 +14103,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>0</v>
@@ -13910,16 +14124,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>0</v>
@@ -13931,16 +14145,16 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>0</v>
@@ -13952,16 +14166,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>0</v>
@@ -13973,16 +14187,16 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>1</v>
@@ -13994,16 +14208,16 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>1</v>
@@ -14015,16 +14229,16 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>1</v>
@@ -14036,16 +14250,16 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>0</v>
@@ -14057,16 +14271,16 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>0</v>
